--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/81_Zonguldak_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/81_Zonguldak_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6387E52C-AECF-4F34-BC45-6874E2B5637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEDB67B1-04AB-4314-AC6C-9D0358605917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{661CAF23-2D8B-49F7-BBD7-5269B65A8715}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{4B7B0BD2-3480-412E-A65D-B5C410EABCC2}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -976,14 +976,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{33979FF1-0310-437F-B2E2-572261E47933}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{40430D55-D77C-470E-9E33-D4F24788FBED}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{87D98974-8BEB-4CF2-8C93-76039BB37E54}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{2FB32CC0-27DA-4C0F-A89E-D7B78B6EF75D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5354D83A-1560-4572-8E8C-ED476F08C0FA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7BD8E48D-8A0D-465A-99B2-717DF92647E5}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{0A10BEEB-FAC2-4EA0-9968-5FD8AD5F824E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F92A9C93-0E33-4A49-9CC6-60A8DEA43F77}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FD09E00D-A1A2-4983-A96E-90D63EC20D35}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8DB28F17-832B-40C6-BF24-7147B505DBBF}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{3F574D45-DB32-46FF-87DF-AA1EFBF61EE8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{D5137C16-9671-455F-81C4-3F75800FA0FF}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{92537CC4-0208-4B6C-8F79-71E5BE1FBEAE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C6ABDFA9-EFB2-466E-8516-52A5528EA386}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{F87E8548-F492-49B4-AE0B-5446271C2661}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{4A3675EF-2EE6-4BAB-AB74-D3CE02B1C7C0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1353,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70024A90-E302-4F26-89AC-BC5F6202E97E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E954C785-6498-4B33-AB0A-539F32DB6319}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2631,7 +2631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79206DCF-1658-44B2-AD76-E745C64E1E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE58680A-7C8B-4919-BCC5-75FBDE788AFE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3874,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F25A40-D05E-411F-8054-B417D9B00C57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46404B0-35B9-4DA9-AFEF-1582753E9709}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5113,7 +5113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EB5876-9657-43DA-8FA5-B397D44F8DD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9BF4D44-3001-4D6E-9A9F-AE0FADB1CAD2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6342,7 +6342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50D6BBA-2837-4C23-8E5E-00055B9E2810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C91233-7E18-4CF7-BAD1-BDFE50966935}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7619,7 +7619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DCFBDF-27E1-4785-B6CE-BC7988D2A539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765D8765-495A-48D1-9C03-21AFACD32D97}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8896,7 +8896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B1A003-0E21-453D-95F1-E55C6B6047E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B35923-3A16-462D-BD7F-EA5B40633C27}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10173,7 +10173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8DFABB-BCF1-44B5-BFDA-54984214650C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3B45C3-3088-4980-A800-EAB6AF0A6958}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11450,7 +11450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA65EAA-E710-40E1-BF18-A5F3972B8563}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3BA88E-51FC-4048-B775-94AF7597330A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12727,7 +12727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD7FA29-DF08-4CEA-8CB1-DB5C97F52DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725B73A8-B33E-4205-9ABA-1D92AAC57DB3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13990,7 +13990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEACF710-7A86-4DA8-ACFC-9AF5A87AC8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E34F89-3E62-4002-B6F2-4F4E56146B5E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15253,7 +15253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11338F5E-CCD8-4564-A6C1-643401CE09A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29163E2-94D6-4104-A320-A1213B569073}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
